--- a/config/templates/daybook/658e542c6aebff64cf245e43.xlsx
+++ b/config/templates/daybook/658e542c6aebff64cf245e43.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zumo/Documents/mom/app/go-saved/config/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zumo/Documents/mom/app/go-saved/config/templates/daybook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4240FAF-218B-F841-A0C9-A7E6796A64F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA142AF-A23A-2A4C-B8FF-95167C3E87A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="967" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,41 +385,41 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="21" customHeight="1"/>
@@ -1065,25 +1065,25 @@
   <sheetData>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1">
       <c r="A2" s="43"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
@@ -1100,14 +1100,14 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
@@ -1118,10 +1118,10 @@
       <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="7"/>
@@ -1131,36 +1131,36 @@
       <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
@@ -1176,9 +1176,9 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="33"/>
       <c r="F10" s="40"/>
       <c r="G10" s="42"/>
@@ -1188,9 +1188,9 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="33"/>
       <c r="F11" s="40"/>
       <c r="G11" s="42"/>
@@ -1200,14 +1200,11 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="33"/>
-      <c r="F12" s="40" t="str">
-        <f>IF(E12=0," ",VLOOKUP(E12,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F12" s="40"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="28"/>
@@ -1215,14 +1212,11 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="33"/>
-      <c r="F13" s="40" t="str">
-        <f>IF(E13=0," ",VLOOKUP(E13,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F13" s="40"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="28"/>
@@ -1230,14 +1224,11 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="40" t="str">
-        <f>IF(E14=0," ",VLOOKUP(E14,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="28"/>
@@ -1245,14 +1236,11 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="40" t="str">
-        <f>IF(E15=0," ",VLOOKUP(E15,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F15" s="40"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="28"/>
@@ -1260,14 +1248,11 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="40" t="str">
-        <f>IF(E16=0," ",VLOOKUP(E16,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="28"/>
@@ -1275,14 +1260,11 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="40" t="str">
-        <f>IF(E17=0," ",VLOOKUP(E17,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F17" s="40"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="28"/>
@@ -1290,14 +1272,11 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="40" t="str">
-        <f>IF(E18=0," ",VLOOKUP(E18,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F18" s="40"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="29"/>
@@ -1305,14 +1284,11 @@
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="40" t="str">
-        <f>IF(E19=0," ",VLOOKUP(E19,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F19" s="40"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="29"/>
@@ -1320,14 +1296,11 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="40" t="str">
-        <f>IF(E20=0," ",VLOOKUP(E20,#REF!,2,0))</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F20" s="40"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="29"/>
@@ -1631,18 +1604,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -1653,6 +1614,18 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.11811023622047245" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
